--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -462,247 +462,247 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>518.0</t>
-  </si>
-  <si>
-    <t>448.0</t>
+    <t>406.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>437.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>461.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>456.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1005.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>1109.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>924.0</t>
+  </si>
+  <si>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>971.0</t>
   </si>
   <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>552.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>427.0</t>
+  </si>
+  <si>
+    <t>469.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>810.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>861.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>836.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>1187.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>1286.0</t>
+  </si>
+  <si>
+    <t>131.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>653.0</t>
+  </si>
+  <si>
+    <t>578.0</t>
+  </si>
+  <si>
+    <t>713.0</t>
   </si>
   <si>
     <t>129.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>461.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>456.0</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>487.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1005.0</t>
-  </si>
-  <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>1109.0</t>
-  </si>
-  <si>
-    <t>220.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>924.0</t>
-  </si>
-  <si>
-    <t>815.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>971.0</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>469.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>861.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>836.0</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>906.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>1075.0</t>
-  </si>
-  <si>
-    <t>957.0</t>
-  </si>
-  <si>
-    <t>1166.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>653.0</t>
-  </si>
-  <si>
-    <t>578.0</t>
-  </si>
-  <si>
-    <t>713.0</t>
   </si>
   <si>
     <t>94</t>
@@ -1431,19 +1431,19 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
         <v>167</v>
-      </c>
-      <c r="E2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -1452,10 +1452,10 @@
         <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M2" t="s">
         <v>36</v>
@@ -1478,10 +1478,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>112</v>
@@ -1499,10 +1499,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
         <v>71</v>
@@ -1585,34 +1585,34 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
         <v>174</v>
-      </c>
-      <c r="E2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" t="s">
-        <v>176</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
       <c r="J2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" t="s">
         <v>178</v>
-      </c>
-      <c r="K2" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" t="s">
-        <v>145</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -1632,10 +1632,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>107</v>
@@ -1650,13 +1650,13 @@
         <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" t="s">
         <v>180</v>
-      </c>
-      <c r="L3" t="s">
-        <v>181</v>
       </c>
       <c r="M3" t="s">
         <v>90</v>
@@ -1739,19 +1739,19 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
         <v>182</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>184</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -1763,10 +1763,10 @@
         <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -1786,10 +1786,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
         <v>182</v>
-      </c>
-      <c r="E3" t="s">
-        <v>183</v>
       </c>
       <c r="F3" t="s">
         <v>76</v>
@@ -1807,13 +1807,13 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
+        <v>186</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" t="s">
         <v>187</v>
-      </c>
-      <c r="L3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M3" t="s">
-        <v>188</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -1893,31 +1893,31 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>190</v>
-      </c>
-      <c r="F2" t="s">
-        <v>191</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
         <v>120</v>
@@ -1940,10 +1940,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
         <v>189</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>76</v>
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
         <v>112</v>
@@ -2047,19 +2047,19 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
         <v>195</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>196</v>
-      </c>
-      <c r="F2" t="s">
-        <v>197</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -2071,10 +2071,10 @@
         <v>76</v>
       </c>
       <c r="L2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" t="s">
         <v>199</v>
-      </c>
-      <c r="M2" t="s">
-        <v>149</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -2094,10 +2094,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
         <v>195</v>
-      </c>
-      <c r="E3" t="s">
-        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>69</v>
@@ -2106,7 +2106,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
@@ -2222,13 +2222,13 @@
         <v>206</v>
       </c>
       <c r="K2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" t="s">
         <v>207</v>
       </c>
-      <c r="L2" t="s">
-        <v>208</v>
-      </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -2254,13 +2254,13 @@
         <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
@@ -2269,13 +2269,13 @@
         <v>118</v>
       </c>
       <c r="K3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" t="s">
         <v>209</v>
-      </c>
-      <c r="L3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" t="s">
-        <v>210</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -2355,34 +2355,34 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>211</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>212</v>
-      </c>
-      <c r="F2" t="s">
-        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
         <v>215</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -2402,25 +2402,25 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
         <v>211</v>
       </c>
-      <c r="E3" t="s">
-        <v>212</v>
-      </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>216</v>
@@ -2429,7 +2429,7 @@
         <v>217</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -2509,19 +2509,19 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
         <v>219</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -2530,10 +2530,10 @@
         <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M2" t="s">
         <v>57</v>
@@ -2556,10 +2556,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
         <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>112</v>
@@ -2568,7 +2568,7 @@
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
@@ -2577,13 +2577,13 @@
         <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -2669,7 +2669,7 @@
         <v>225</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
@@ -2684,7 +2684,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
         <v>81</v>
@@ -4279,16 +4279,16 @@
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -4314,28 +4314,28 @@
         <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -4415,34 +4415,34 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
         <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -4462,10 +4462,10 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -4489,7 +4489,7 @@
         <v>107</v>
       </c>
       <c r="M3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
         <v>47</v>
@@ -4569,19 +4569,19 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
         <v>53</v>
@@ -4590,13 +4590,13 @@
         <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N2" t="s">
         <v>47</v>
@@ -4616,19 +4616,19 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
         <v>53</v>
@@ -4640,7 +4640,7 @@
         <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
         <v>86</v>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="258">
   <si>
     <t>mesure</t>
   </si>
@@ -111,6 +111,9 @@
     <t>12.0</t>
   </si>
   <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
     <t>% des classes</t>
   </si>
   <si>
@@ -177,6 +180,33 @@
     <t>2022-09-30</t>
   </si>
   <si>
+    <t>Devoirs faits au collège</t>
+  </si>
+  <si>
+    <t>Part de collégiens bénéficiant du dispositif (en %)</t>
+  </si>
+  <si>
+    <t>taux-collegiens-beneficiaires</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>% de collégiens</t>
+  </si>
+  <si>
     <t>Offrir une scolarisation inclusive à tous les enfants handicapés</t>
   </si>
   <si>
@@ -288,6 +318,9 @@
     <t>20.0</t>
   </si>
   <si>
+    <t>62.0</t>
+  </si>
+  <si>
     <t>69.0</t>
   </si>
   <si>
@@ -336,6 +369,12 @@
     <t>22.0</t>
   </si>
   <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>133.0</t>
   </si>
   <si>
@@ -348,9 +387,6 @@
     <t>146.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>17.0</t>
   </si>
   <si>
@@ -381,6 +417,15 @@
     <t>83.0</t>
   </si>
   <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
     <t>239.0</t>
   </si>
   <si>
@@ -426,15 +471,18 @@
     <t>59.0</t>
   </si>
   <si>
-    <t>28.0</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>Île-de-France</t>
   </si>
   <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
     <t>1408.0</t>
   </si>
   <si>
@@ -453,15 +501,24 @@
     <t>227.0</t>
   </si>
   <si>
-    <t>57.0</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>Centre-Val de Loire</t>
   </si>
   <si>
+    <t>204.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
     <t>406.0</t>
   </si>
   <si>
@@ -471,15 +528,15 @@
     <t>432.0</t>
   </si>
   <si>
-    <t>19.0</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
+    <t>288.0</t>
+  </si>
+  <si>
     <t>437.0</t>
   </si>
   <si>
@@ -495,24 +552,30 @@
     <t>65.0</t>
   </si>
   <si>
-    <t>38.0</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
     <t>Normandie</t>
   </si>
   <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
     <t>456.0</t>
   </si>
   <si>
     <t>395.0</t>
   </si>
   <si>
-    <t>15.0</t>
-  </si>
-  <si>
     <t>487.0</t>
   </si>
   <si>
@@ -534,6 +597,9 @@
     <t>Hauts-de-France</t>
   </si>
   <si>
+    <t>178.0</t>
+  </si>
+  <si>
     <t>1005.0</t>
   </si>
   <si>
@@ -555,6 +621,15 @@
     <t>Grand Est</t>
   </si>
   <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
     <t>924.0</t>
   </si>
   <si>
@@ -582,6 +657,12 @@
     <t>Pays de la Loire</t>
   </si>
   <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
     <t>443.0</t>
   </si>
   <si>
@@ -591,27 +672,24 @@
     <t>469.0</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
     <t>Bretagne</t>
   </si>
   <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
     <t>362.0</t>
   </si>
   <si>
     <t>333.0</t>
   </si>
   <si>
-    <t>29.0</t>
-  </si>
-  <si>
     <t>383.0</t>
   </si>
   <si>
@@ -621,6 +699,12 @@
     <t>Nouvelle-Aquitaine</t>
   </si>
   <si>
+    <t>401.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
     <t>810.0</t>
   </si>
   <si>
@@ -633,9 +717,6 @@
     <t>53.0</t>
   </si>
   <si>
-    <t>62.0</t>
-  </si>
-  <si>
     <t>31.0</t>
   </si>
   <si>
@@ -645,6 +726,12 @@
     <t>Occitanie</t>
   </si>
   <si>
+    <t>374.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
     <t>836.0</t>
   </si>
   <si>
@@ -660,15 +747,21 @@
     <t>77.0</t>
   </si>
   <si>
-    <t>40.0</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
+    <t>330.0</t>
+  </si>
+  <si>
+    <t>267.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
     <t>1187.0</t>
   </si>
   <si>
@@ -693,6 +786,9 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
+    <t>164.0</t>
+  </si>
+  <si>
     <t>653.0</t>
   </si>
   <si>
@@ -709,9 +805,6 @@
   </si>
   <si>
     <t>Corse</t>
-  </si>
-  <si>
-    <t>44.0</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1130,8 +1223,17 @@
       <c r="K2" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1139,10 +1241,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1151,45 +1253,45 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1198,45 +1300,45 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1245,39 +1347,30 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -1292,45 +1385,45 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1339,25 +1432,72 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1507,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1422,54 +1562,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1478,40 +1609,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1576,54 +1754,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1632,40 +1801,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
+        <v>183</v>
+      </c>
+      <c r="L3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" t="s">
+        <v>204</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1891,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1730,54 +1946,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1786,40 +1993,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1884,54 +2138,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1940,40 +2185,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2275,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,54 +2330,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" t="s">
-        <v>198</v>
-      </c>
-      <c r="M2" t="s">
-        <v>199</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -2094,40 +2377,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" t="s">
+        <v>228</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2137,7 +2467,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2192,54 +2522,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>206</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" t="s">
-        <v>207</v>
-      </c>
-      <c r="M2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -2248,40 +2569,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" t="s">
-        <v>208</v>
-      </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2659,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,54 +2714,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -2402,40 +2761,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="K3" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="L3" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="M3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2851,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2500,54 +2906,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -2556,40 +2953,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="M3" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>255</v>
+      </c>
+      <c r="L4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2599,7 +3043,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2654,54 +3098,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -2710,40 +3145,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2753,7 +3235,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2817,10 +3299,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -2829,19 +3311,28 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2849,145 +3340,136 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -2996,78 +3478,125 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
         <v>24</v>
       </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +3606,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3141,31 +3670,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3173,145 +3711,133 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3320,78 +3846,125 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3974,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3465,10 +4038,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3477,19 +4050,28 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3497,81 +4079,81 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -3580,62 +4162,53 @@
         <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" t="s">
-        <v>120</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3644,78 +4217,125 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +4345,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3789,31 +4409,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3821,142 +4450,130 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3965,75 +4582,122 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>46</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4043,7 +4707,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4098,54 +4762,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4154,40 +4809,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" t="s">
-        <v>139</v>
-      </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4899,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4252,54 +4954,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" t="s">
-        <v>145</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4308,40 +5001,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>53</v>
       </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
+      <c r="M4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +5091,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4406,54 +5146,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
-      </c>
       <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4462,40 +5193,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
-        <v>64</v>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4560,54 +5338,45 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" t="s">
-        <v>160</v>
-      </c>
-      <c r="M2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -4616,40 +5385,87 @@
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="316">
   <si>
     <t>mesure</t>
   </si>
@@ -111,7 +111,7 @@
     <t>12.0</t>
   </si>
   <si>
-    <t>2021-10-31</t>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>% des classes</t>
@@ -204,6 +204,12 @@
     <t>79.0</t>
   </si>
   <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
     <t>% de collégiens</t>
   </si>
   <si>
@@ -267,484 +273,637 @@
     <t>tx-reussite-examens</t>
   </si>
   <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>% de réussite</t>
+  </si>
+  <si>
+    <t>Promouvoir l'engagement chez les jeunes</t>
+  </si>
+  <si>
+    <t>Nombre de volontaires ayant réalisé au moins un jour de mission de service civique dans l'année</t>
+  </si>
+  <si>
+    <t>nb-jeunes-engages</t>
+  </si>
+  <si>
+    <t>2605.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2002.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>603.0</t>
+  </si>
+  <si>
+    <t>jeunes</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
     <t>32.0</t>
   </si>
   <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>1283.0</t>
+  </si>
+  <si>
+    <t>1412.0</t>
+  </si>
+  <si>
+    <t>-129.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-50.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>93.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>16.8</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>1519.0</t>
+  </si>
+  <si>
+    <t>1891.0</t>
+  </si>
+  <si>
+    <t>-372.0</t>
+  </si>
+  <si>
+    <t>-20.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>3973.0</t>
+  </si>
+  <si>
+    <t>3374.0</t>
+  </si>
+  <si>
+    <t>599.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>1178.0</t>
+  </si>
+  <si>
+    <t>1087.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1408.0</t>
+  </si>
+  <si>
+    <t>1267.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>1504.0</t>
+  </si>
+  <si>
+    <t>227.0</t>
+  </si>
+  <si>
+    <t>18315.0</t>
+  </si>
+  <si>
+    <t>17227.0</t>
+  </si>
+  <si>
+    <t>1088.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>433.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>406.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>4853.0</t>
+  </si>
+  <si>
+    <t>4263.0</t>
+  </si>
+  <si>
+    <t>590.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>437.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>461.0</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>5603.0</t>
+  </si>
+  <si>
+    <t>5164.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>456.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>6327.0</t>
+  </si>
+  <si>
+    <t>5396.0</t>
+  </si>
+  <si>
+    <t>931.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1005.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>1109.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>15398.0</t>
+  </si>
+  <si>
+    <t>13409.0</t>
+  </si>
+  <si>
+    <t>1989.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>924.0</t>
+  </si>
+  <si>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>971.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>10560.0</t>
+  </si>
+  <si>
+    <t>9856.0</t>
+  </si>
+  <si>
+    <t>704.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>443.0</t>
+  </si>
+  <si>
+    <t>427.0</t>
+  </si>
+  <si>
+    <t>469.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>6504.0</t>
+  </si>
+  <si>
+    <t>5879.0</t>
+  </si>
+  <si>
+    <t>625.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>633.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>4702.0</t>
+  </si>
+  <si>
+    <t>4138.0</t>
+  </si>
+  <si>
+    <t>564.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>810.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>861.0</t>
+  </si>
+  <si>
     <t>21.0</t>
   </si>
   <si>
-    <t>2017-10-31</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>% de réussite</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-50.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>-23.0</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>208.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>1408.0</t>
-  </si>
-  <si>
-    <t>1267.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>1504.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>227.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>204.0</t>
-  </si>
-  <si>
-    <t>144.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>432.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>437.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>461.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>456.0</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>487.0</t>
-  </si>
-  <si>
-    <t>66.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>178.0</t>
-  </si>
-  <si>
-    <t>1005.0</t>
-  </si>
-  <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>1109.0</t>
-  </si>
-  <si>
-    <t>220.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>306.0</t>
+    <t>12091.0</t>
+  </si>
+  <si>
+    <t>11290.0</t>
+  </si>
+  <si>
+    <t>801.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>836.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
   </si>
   <si>
     <t>40.0</t>
   </si>
   <si>
-    <t>924.0</t>
-  </si>
-  <si>
-    <t>815.0</t>
-  </si>
-  <si>
-    <t>109.0</t>
-  </si>
-  <si>
-    <t>971.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>118.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>443.0</t>
-  </si>
-  <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>469.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>401.0</t>
-  </si>
-  <si>
-    <t>315.0</t>
-  </si>
-  <si>
-    <t>810.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>861.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>374.0</t>
-  </si>
-  <si>
-    <t>318.0</t>
-  </si>
-  <si>
-    <t>836.0</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>136.0</t>
-  </si>
-  <si>
-    <t>906.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
+    <t>12072.0</t>
+  </si>
+  <si>
+    <t>11737.0</t>
+  </si>
+  <si>
+    <t>335.0</t>
   </si>
   <si>
     <t>84</t>
@@ -753,15 +912,6 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>330.0</t>
-  </si>
-  <si>
-    <t>267.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
     <t>1187.0</t>
   </si>
   <si>
@@ -777,7 +927,13 @@
     <t>131.0</t>
   </si>
   <si>
-    <t>47.0</t>
+    <t>12055.0</t>
+  </si>
+  <si>
+    <t>11196.0</t>
+  </si>
+  <si>
+    <t>859.0</t>
   </si>
   <si>
     <t>93</t>
@@ -786,9 +942,6 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>164.0</t>
-  </si>
-  <si>
     <t>653.0</t>
   </si>
   <si>
@@ -801,10 +954,31 @@
     <t>129.0</t>
   </si>
   <si>
+    <t>8676.0</t>
+  </si>
+  <si>
+    <t>9525.0</t>
+  </si>
+  <si>
+    <t>-849.0</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
     <t>Corse</t>
+  </si>
+  <si>
+    <t>425.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>-53.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1364,19 +1538,28 @@
       <c r="K5" t="s">
         <v>56</v>
       </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1385,45 +1568,45 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1438,39 +1621,39 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1479,25 +1662,72 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1562,134 +1792,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>219</v>
+      </c>
+      <c r="L2" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="L3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1754,134 +1984,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" t="s">
         <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" t="s">
-        <v>199</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
-      </c>
-      <c r="L4" t="s">
-        <v>205</v>
-      </c>
-      <c r="M4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +2121,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1946,134 +2176,275 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" t="s">
+        <v>131</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="K6" t="s">
+        <v>256</v>
+      </c>
+      <c r="L6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" t="s">
+        <v>217</v>
+      </c>
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>74</v>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2454,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2138,134 +2509,275 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
         <v>32</v>
       </c>
-      <c r="K4" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K6" t="s">
+        <v>256</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>74</v>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2330,134 +2842,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="K4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>228</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2522,134 +3034,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="K4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2714,134 +3226,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>296</v>
+      </c>
+      <c r="M2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="L3" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L4" t="s">
-        <v>248</v>
-      </c>
-      <c r="M4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2906,134 +3418,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>191</v>
+      </c>
+      <c r="L2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>306</v>
       </c>
       <c r="L3" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>309</v>
       </c>
       <c r="K4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3555,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3098,134 +3610,275 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>135</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>312</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="M3" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>113</v>
-      </c>
       <c r="K4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>74</v>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" t="s">
+        <v>311</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" t="s">
+        <v>315</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3299,10 +3952,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3311,16 +3964,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -3346,13 +3999,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3364,16 +4017,16 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -3393,34 +4046,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="N4" t="s">
         <v>48</v>
@@ -3440,95 +4093,104 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="L5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
         <v>46</v>
@@ -3537,13 +4199,13 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -3552,51 +4214,98 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +4315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3670,19 +4379,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3697,7 +4406,7 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3717,13 +4426,13 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -3735,16 +4444,16 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -3764,19 +4473,19 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -3791,7 +4500,7 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="N4" t="s">
         <v>48</v>
@@ -3811,160 +4520,219 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>140</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4742,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4038,10 +4806,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -4050,16 +4818,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -4085,19 +4853,19 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -4106,13 +4874,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -4132,19 +4900,19 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -4179,95 +4947,104 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
         <v>54</v>
       </c>
       <c r="J5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" t="s">
         <v>124</v>
       </c>
-      <c r="K5" t="s">
-        <v>130</v>
+      <c r="N5" t="s">
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -4279,63 +5056,110 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="O8" t="s">
-        <v>82</v>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>165</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4345,7 +5169,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4409,34 +5233,34 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -4456,31 +5280,31 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
       </c>
       <c r="J3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" t="s">
         <v>113</v>
       </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
@@ -4500,34 +5324,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="N4" t="s">
         <v>48</v>
@@ -4547,57 +5371,69 @@
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -4606,98 +5442,145 @@
         <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="N6" t="s">
         <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4762,134 +5645,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4899,7 +5782,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4954,134 +5837,275 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
         <v>88</v>
       </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5146,134 +6170,134 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="N3" t="s">
         <v>48</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="K4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +6307,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5338,134 +6362,275 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="M3" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="K4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>221</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" t="s">
+        <v>225</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>74</v>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="333">
   <si>
     <t>mesure</t>
   </si>
@@ -195,6 +195,12 @@
     <t>137.0</t>
   </si>
   <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
     <t>% de collégiens</t>
   </si>
   <si>
@@ -312,6 +318,9 @@
     <t>10.0</t>
   </si>
   <si>
+    <t>3777.0</t>
+  </si>
+  <si>
     <t>jeunes</t>
   </si>
   <si>
@@ -357,6 +366,12 @@
     <t>50.0</t>
   </si>
   <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
     <t>71.0</t>
   </si>
   <si>
@@ -387,6 +402,9 @@
     <t>-7.0</t>
   </si>
   <si>
+    <t>1951.0</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -408,6 +426,9 @@
     <t>43.0</t>
   </si>
   <si>
+    <t>39.0</t>
+  </si>
+  <si>
     <t>127.0</t>
   </si>
   <si>
@@ -438,6 +459,9 @@
     <t>-27.0</t>
   </si>
   <si>
+    <t>2369.0</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -465,9 +489,6 @@
     <t>15.0</t>
   </si>
   <si>
-    <t>54.0</t>
-  </si>
-  <si>
     <t>235.0</t>
   </si>
   <si>
@@ -504,6 +525,12 @@
     <t>21.0</t>
   </si>
   <si>
+    <t>6014.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -525,6 +552,9 @@
     <t>-5.0</t>
   </si>
   <si>
+    <t>49.0</t>
+  </si>
+  <si>
     <t>60.0</t>
   </si>
   <si>
@@ -555,6 +585,9 @@
     <t>68.0</t>
   </si>
   <si>
+    <t>1749.0</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -597,6 +630,9 @@
     <t>20.0</t>
   </si>
   <si>
+    <t>27937.0</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -609,9 +645,6 @@
     <t>350.0</t>
   </si>
   <si>
-    <t>73.0</t>
-  </si>
-  <si>
     <t>432.0</t>
   </si>
   <si>
@@ -630,6 +663,12 @@
     <t>921.0</t>
   </si>
   <si>
+    <t>7298.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -657,6 +696,9 @@
     <t>572.0</t>
   </si>
   <si>
+    <t>8520.0</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
@@ -687,6 +729,12 @@
     <t>1398.0</t>
   </si>
   <si>
+    <t>9498.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -714,6 +762,12 @@
     <t>4225.0</t>
   </si>
   <si>
+    <t>23116.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
@@ -747,6 +801,9 @@
     <t>978.0</t>
   </si>
   <si>
+    <t>16608.0</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
@@ -777,6 +834,9 @@
     <t>539.0</t>
   </si>
   <si>
+    <t>9651.0</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
@@ -807,6 +867,12 @@
     <t>4138.0</t>
   </si>
   <si>
+    <t>7134.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
     <t>75</t>
   </si>
   <si>
@@ -825,9 +891,6 @@
     <t>123.0</t>
   </si>
   <si>
-    <t>39.0</t>
-  </si>
-  <si>
     <t>62.0</t>
   </si>
   <si>
@@ -840,6 +903,9 @@
     <t>888.0</t>
   </si>
   <si>
+    <t>17728.0</t>
+  </si>
+  <si>
     <t>76</t>
   </si>
   <si>
@@ -852,18 +918,12 @@
     <t>700.0</t>
   </si>
   <si>
-    <t>27.0</t>
-  </si>
-  <si>
     <t>906.0</t>
   </si>
   <si>
     <t>90.0</t>
   </si>
   <si>
-    <t>30.0</t>
-  </si>
-  <si>
     <t>38.0</t>
   </si>
   <si>
@@ -876,6 +936,9 @@
     <t>1194.0</t>
   </si>
   <si>
+    <t>18283.0</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
@@ -906,6 +969,9 @@
     <t>1033.0</t>
   </si>
   <si>
+    <t>18253.0</t>
+  </si>
+  <si>
     <t>93</t>
   </si>
   <si>
@@ -939,15 +1005,15 @@
     <t>-8.0</t>
   </si>
   <si>
+    <t>13654.0</t>
+  </si>
+  <si>
     <t>94</t>
   </si>
   <si>
     <t>Corse</t>
   </si>
   <si>
-    <t>44.0</t>
-  </si>
-  <si>
     <t>75.0</t>
   </si>
   <si>
@@ -961,6 +1027,9 @@
   </si>
   <si>
     <t>-1.0</t>
+  </si>
+  <si>
+    <t>580.0</t>
   </si>
 </sst>
 </file>
@@ -1520,19 +1589,28 @@
       <c r="K5" t="s">
         <v>53</v>
       </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1541,45 +1619,45 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1588,25 +1666,25 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
@@ -1615,18 +1693,18 @@
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1635,45 +1713,45 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1682,25 +1760,34 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1765,134 +1852,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1957,40 +2053,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -1999,27 +2095,27 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -2028,63 +2124,72 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="L3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>237</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2149,66 +2254,66 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2217,66 +2322,75 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2341,66 +2455,66 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="M2" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2409,66 +2523,75 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" t="s">
-        <v>147</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2533,40 +2656,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -2575,92 +2698,101 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2725,134 +2857,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
       <c r="L3" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>301</v>
+      </c>
+      <c r="M4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2917,134 +3058,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="M2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s">
+        <v>312</v>
+      </c>
+      <c r="M4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3109,134 +3259,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" t="s">
+        <v>323</v>
+      </c>
+      <c r="L4" t="s">
+        <v>324</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>300</v>
-      </c>
-      <c r="K4" t="s">
-        <v>301</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3301,66 +3460,66 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="L2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M2" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -3372,63 +3531,72 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" t="s">
-        <v>309</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3502,10 +3670,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3514,16 +3682,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -3549,10 +3717,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -3567,16 +3735,16 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -3596,10 +3764,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -3614,16 +3782,16 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
@@ -3643,95 +3811,104 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="L5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
         <v>109</v>
       </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -3740,16 +3917,16 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
         <v>30</v>
@@ -3761,92 +3938,101 @@
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
         <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" t="s">
-        <v>117</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3920,10 +4106,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3932,16 +4118,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -3967,13 +4153,13 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -3985,16 +4171,16 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -4014,19 +4200,19 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -4041,7 +4227,7 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
@@ -4061,45 +4247,54 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="L5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -4108,160 +4303,169 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N7" t="s">
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
         <v>44</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" t="s">
-        <v>134</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4335,10 +4539,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -4347,16 +4551,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -4382,34 +4586,34 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -4429,10 +4633,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -4441,16 +4645,16 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
@@ -4476,98 +4680,107 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>111</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -4576,16 +4789,16 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
@@ -4594,92 +4807,101 @@
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
         <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4753,10 +4975,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -4765,7 +4987,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4800,31 +5022,31 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -4844,34 +5066,34 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
@@ -4891,10 +5113,10 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -4903,7 +5125,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
@@ -4911,72 +5133,81 @@
       <c r="J5" t="s">
         <v>52</v>
       </c>
+      <c r="L5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -4985,10 +5216,10 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4997,98 +5228,107 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N7" t="s">
         <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" t="s">
         <v>157</v>
       </c>
-      <c r="E8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" t="s">
-        <v>173</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5153,69 +5393,69 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -5224,63 +5464,72 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" t="s">
-        <v>187</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5345,40 +5594,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -5387,92 +5636,101 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" t="s">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5537,87 +5795,87 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="L3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M3" t="s">
         <v>39</v>
@@ -5626,45 +5884,54 @@
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
+      <c r="L4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5729,40 +5996,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -5771,45 +6038,45 @@
         <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -5818,45 +6085,54 @@
         <v>45</v>
       </c>
       <c r="O3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
+      <c r="L4" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" t="s">
+        <v>233</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="355">
   <si>
     <t>mesure</t>
   </si>
@@ -594,34 +594,40 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>1453.0</t>
-  </si>
-  <si>
-    <t>1267.0</t>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1267</t>
   </si>
   <si>
     <t>186.0</t>
   </si>
   <si>
-    <t>1504.0</t>
+    <t>1504</t>
   </si>
   <si>
     <t>78.0</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>37.0</t>
   </si>
   <si>
     <t>336.0</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>84.0</t>
   </si>
   <si>
-    <t>20653.0</t>
-  </si>
-  <si>
-    <t>17227.0</t>
+    <t>20653</t>
+  </si>
+  <si>
+    <t>17227</t>
   </si>
   <si>
     <t>3426.0</t>
@@ -630,7 +636,7 @@
     <t>20.0</t>
   </si>
   <si>
-    <t>27937.0</t>
+    <t>27937</t>
   </si>
   <si>
     <t>24</t>
@@ -639,31 +645,40 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>423.0</t>
-  </si>
-  <si>
-    <t>350.0</t>
-  </si>
-  <si>
-    <t>432.0</t>
+    <t>423</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>167.0</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>77.0</t>
   </si>
   <si>
-    <t>5184.0</t>
-  </si>
-  <si>
-    <t>4263.0</t>
+    <t>5184</t>
+  </si>
+  <si>
+    <t>4263</t>
   </si>
   <si>
     <t>921.0</t>
   </si>
   <si>
-    <t>7298.0</t>
+    <t>7298</t>
   </si>
   <si>
     <t>30.0</t>
@@ -675,28 +690,34 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>446.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>461.0</t>
+    <t>446</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>175.0</t>
   </si>
   <si>
-    <t>5736.0</t>
-  </si>
-  <si>
-    <t>5164.0</t>
+    <t>5736</t>
+  </si>
+  <si>
+    <t>5164</t>
   </si>
   <si>
     <t>572.0</t>
   </si>
   <si>
-    <t>8520.0</t>
+    <t>8520</t>
   </si>
   <si>
     <t>28</t>
@@ -705,322 +726,367 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>488.0</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>487.0</t>
+    <t>488</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>6794</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>1398.0</t>
+  </si>
+  <si>
+    <t>9498</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>17634</t>
+  </si>
+  <si>
+    <t>13409</t>
+  </si>
+  <si>
+    <t>4225.0</t>
+  </si>
+  <si>
+    <t>23116</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>182.0</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>10834</t>
+  </si>
+  <si>
+    <t>9856</t>
+  </si>
+  <si>
+    <t>978.0</t>
+  </si>
+  <si>
+    <t>16608</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>6418</t>
+  </si>
+  <si>
+    <t>5879</t>
+  </si>
+  <si>
+    <t>539.0</t>
+  </si>
+  <si>
+    <t>9651</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>4879</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>7134</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>12178</t>
+  </si>
+  <si>
+    <t>11290</t>
+  </si>
+  <si>
+    <t>888.0</t>
+  </si>
+  <si>
+    <t>17728</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>12931</t>
+  </si>
+  <si>
+    <t>11737</t>
+  </si>
+  <si>
+    <t>1194.0</t>
+  </si>
+  <si>
+    <t>18283</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>193.0</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>12229</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>1033.0</t>
+  </si>
+  <si>
+    <t>18253</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>214.0</t>
+  </si>
+  <si>
+    <t>8722</t>
+  </si>
+  <si>
+    <t>9525</t>
+  </si>
+  <si>
+    <t>-803.0</t>
+  </si>
+  <si>
+    <t>-8.0</t>
+  </si>
+  <si>
+    <t>13654</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>6794.0</t>
-  </si>
-  <si>
-    <t>5396.0</t>
-  </si>
-  <si>
-    <t>1398.0</t>
-  </si>
-  <si>
-    <t>9498.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1030.0</t>
-  </si>
-  <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>1109.0</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>17634.0</t>
-  </si>
-  <si>
-    <t>13409.0</t>
-  </si>
-  <si>
-    <t>4225.0</t>
-  </si>
-  <si>
-    <t>23116.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>815.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>971.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>10834.0</t>
-  </si>
-  <si>
-    <t>9856.0</t>
-  </si>
-  <si>
-    <t>978.0</t>
-  </si>
-  <si>
-    <t>16608.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>460.0</t>
-  </si>
-  <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>469.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>6418.0</t>
-  </si>
-  <si>
-    <t>5879.0</t>
-  </si>
-  <si>
-    <t>539.0</t>
-  </si>
-  <si>
-    <t>9651.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>373.0</t>
-  </si>
-  <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>4879.0</t>
-  </si>
-  <si>
-    <t>4138.0</t>
-  </si>
-  <si>
-    <t>7134.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>861.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>12178.0</t>
-  </si>
-  <si>
-    <t>11290.0</t>
-  </si>
-  <si>
-    <t>888.0</t>
-  </si>
-  <si>
-    <t>17728.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>886.0</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>906.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>12931.0</t>
-  </si>
-  <si>
-    <t>11737.0</t>
-  </si>
-  <si>
-    <t>1194.0</t>
-  </si>
-  <si>
-    <t>18283.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>1248.0</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>193.0</t>
-  </si>
-  <si>
-    <t>1286.0</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>12229.0</t>
-  </si>
-  <si>
-    <t>11196.0</t>
-  </si>
-  <si>
-    <t>1033.0</t>
-  </si>
-  <si>
-    <t>18253.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>685.0</t>
-  </si>
-  <si>
-    <t>578.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>713.0</t>
-  </si>
-  <si>
-    <t>214.0</t>
-  </si>
-  <si>
-    <t>8722.0</t>
-  </si>
-  <si>
-    <t>9525.0</t>
-  </si>
-  <si>
-    <t>-803.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>13654.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
     <t>75.0</t>
   </si>
   <si>
-    <t>453.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>453</t>
+  </si>
+  <si>
+    <t>459</t>
   </si>
   <si>
     <t>-6.0</t>
@@ -1029,7 +1095,7 @@
     <t>-1.0</t>
   </si>
   <si>
-    <t>580.0</t>
+    <t>580</t>
   </si>
 </sst>
 </file>
@@ -1861,19 +1927,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -1885,7 +1951,7 @@
         <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M2" t="s">
         <v>111</v>
@@ -1908,19 +1974,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -1929,10 +1995,10 @@
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="M3" t="s">
         <v>148</v>
@@ -1955,34 +2021,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="K4" t="s">
         <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M4" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="N4" t="s">
         <v>90</v>
@@ -2062,31 +2128,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
         <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -2109,34 +2175,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2156,31 +2222,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
         <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
         <v>44</v>
@@ -2263,31 +2329,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="K2" t="s">
         <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
         <v>149</v>
@@ -2310,19 +2376,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2331,10 +2397,10 @@
         <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
         <v>176</v>
@@ -2357,31 +2423,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
         <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="M4" t="s">
         <v>44</v>
@@ -2464,34 +2530,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="M2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -2511,19 +2577,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2532,10 +2598,10 @@
         <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="M3" t="s">
         <v>114</v>
@@ -2558,19 +2624,19 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
@@ -2582,10 +2648,10 @@
         <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="N4" t="s">
         <v>90</v>
@@ -2665,19 +2731,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -2689,7 +2755,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -2712,19 +2778,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2733,13 +2799,13 @@
         <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="M3" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2759,31 +2825,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="K4" t="s">
         <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M4" t="s">
         <v>44</v>
@@ -2866,19 +2932,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -2890,10 +2956,10 @@
         <v>165</v>
       </c>
       <c r="L2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="M2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -2913,19 +2979,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>313</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2937,7 +3003,7 @@
         <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="M3" t="s">
         <v>183</v>
@@ -2960,31 +3026,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="K4" t="s">
         <v>94</v>
       </c>
       <c r="L4" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="M4" t="s">
         <v>154</v>
@@ -3067,34 +3133,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="K2" t="s">
         <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -3114,19 +3180,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3135,10 +3201,10 @@
         <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="M3" t="s">
         <v>113</v>
@@ -3161,31 +3227,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K4" t="s">
         <v>101</v>
       </c>
       <c r="L4" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="M4" t="s">
         <v>151</v>
@@ -3268,31 +3334,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="M2" t="s">
         <v>149</v>
@@ -3315,19 +3381,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3336,10 +3402,10 @@
         <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="M3" t="s">
         <v>149</v>
@@ -3362,31 +3428,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="K4" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="L4" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="M4" t="s">
         <v>106</v>
@@ -3469,19 +3535,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" t="s">
         <v>326</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -3490,13 +3556,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="M2" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -3516,19 +3582,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3540,7 +3606,7 @@
         <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="M3" t="s">
         <v>110</v>
@@ -3563,31 +3629,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="K4" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="L4" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="M4" t="s">
         <v>106</v>
@@ -5455,28 +5521,28 @@
         <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -5502,25 +5568,25 @@
         <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M4" t="s">
         <v>108</v>
@@ -5603,19 +5669,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5627,7 +5693,7 @@
         <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -5650,19 +5716,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -5671,13 +5737,13 @@
         <v>94</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -5697,34 +5763,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K4" t="s">
         <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N4" t="s">
         <v>90</v>
@@ -5804,19 +5870,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5828,7 +5894,7 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M2" t="s">
         <v>191</v>
@@ -5851,19 +5917,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -5872,10 +5938,10 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L3" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M3" t="s">
         <v>39</v>
@@ -5898,31 +5964,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M4" t="s">
         <v>178</v>
@@ -6005,19 +6071,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -6029,7 +6095,7 @@
         <v>179</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -6052,19 +6118,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -6073,10 +6139,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -6099,34 +6165,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="N4" t="s">
         <v>90</v>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="330">
   <si>
     <t>mesure</t>
   </si>
@@ -300,7 +300,7 @@
     <t>nb-jeunes-engages</t>
   </si>
   <si>
-    <t>2210.0</t>
+    <t>2576.0</t>
   </si>
   <si>
     <t>2021-12-31</t>
@@ -312,120 +312,120 @@
     <t>2017-12-31</t>
   </si>
   <si>
-    <t>208.0</t>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>3348.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>jeunes</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>579.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>1408.0</t>
+  </si>
+  <si>
+    <t>1412.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>1753.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
   </si>
   <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>3777.0</t>
-  </si>
-  <si>
-    <t>jeunes</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>579.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>1314.0</t>
-  </si>
-  <si>
-    <t>1412.0</t>
-  </si>
-  <si>
-    <t>-98.0</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>1951.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
     <t>93.0</t>
   </si>
   <si>
     <t>91.0</t>
   </si>
   <si>
-    <t>43.0</t>
-  </si>
-  <si>
     <t>39.0</t>
   </si>
   <si>
@@ -447,19 +447,19 @@
     <t>13.0</t>
   </si>
   <si>
-    <t>1374.0</t>
+    <t>1438.0</t>
   </si>
   <si>
     <t>1891.0</t>
   </si>
   <si>
-    <t>-517.0</t>
-  </si>
-  <si>
-    <t>-27.0</t>
-  </si>
-  <si>
-    <t>2369.0</t>
+    <t>-453.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>2357.0</t>
   </si>
   <si>
     <t>04</t>
@@ -513,481 +513,430 @@
     <t>41.0</t>
   </si>
   <si>
-    <t>4095.0</t>
+    <t>4235.0</t>
   </si>
   <si>
     <t>3374.0</t>
   </si>
   <si>
-    <t>721.0</t>
+    <t>861.0</t>
+  </si>
+  <si>
+    <t>5904.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>1847.0</t>
+  </si>
+  <si>
+    <t>1087.0</t>
+  </si>
+  <si>
+    <t>760.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>2214.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1453.0</t>
+  </si>
+  <si>
+    <t>1267.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>1504.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>336.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>21724.0</t>
+  </si>
+  <si>
+    <t>17227.0</t>
+  </si>
+  <si>
+    <t>4497.0</t>
+  </si>
+  <si>
+    <t>28263.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>423.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
   </si>
   <si>
     <t>21.0</t>
   </si>
   <si>
-    <t>6014.0</t>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>5307.0</t>
+  </si>
+  <si>
+    <t>4263.0</t>
+  </si>
+  <si>
+    <t>1044.0</t>
+  </si>
+  <si>
+    <t>7449.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>446.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>461.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>5959.0</t>
+  </si>
+  <si>
+    <t>5164.0</t>
+  </si>
+  <si>
+    <t>795.0</t>
+  </si>
+  <si>
+    <t>8386.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>488.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>7072.0</t>
+  </si>
+  <si>
+    <t>5396.0</t>
+  </si>
+  <si>
+    <t>1676.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>9724.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1030.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>1109.0</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>18403.0</t>
+  </si>
+  <si>
+    <t>13409.0</t>
+  </si>
+  <si>
+    <t>4994.0</t>
+  </si>
+  <si>
+    <t>24857.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>971.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>182.0</t>
+  </si>
+  <si>
+    <t>11163.0</t>
+  </si>
+  <si>
+    <t>9856.0</t>
+  </si>
+  <si>
+    <t>1307.0</t>
+  </si>
+  <si>
+    <t>15885.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>427.0</t>
+  </si>
+  <si>
+    <t>469.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>6682.0</t>
+  </si>
+  <si>
+    <t>5879.0</t>
+  </si>
+  <si>
+    <t>803.0</t>
+  </si>
+  <si>
+    <t>9685.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>373.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>5027.0</t>
+  </si>
+  <si>
+    <t>4138.0</t>
+  </si>
+  <si>
+    <t>889.0</t>
+  </si>
+  <si>
+    <t>7114.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>845.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>12778.0</t>
+  </si>
+  <si>
+    <t>11290.0</t>
+  </si>
+  <si>
+    <t>1488.0</t>
+  </si>
+  <si>
+    <t>18240.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>886.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
   </si>
   <si>
     <t>27.0</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>1828.0</t>
-  </si>
-  <si>
-    <t>1087.0</t>
-  </si>
-  <si>
-    <t>741.0</t>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
   </si>
   <si>
     <t>68.0</t>
   </si>
   <si>
-    <t>1749.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>1267</t>
-  </si>
-  <si>
-    <t>186.0</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>336.0</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>20653</t>
-  </si>
-  <si>
-    <t>17227</t>
-  </si>
-  <si>
-    <t>3426.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>27937</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>5184</t>
-  </si>
-  <si>
-    <t>4263</t>
-  </si>
-  <si>
-    <t>921.0</t>
-  </si>
-  <si>
-    <t>7298</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>175.0</t>
-  </si>
-  <si>
-    <t>5736</t>
-  </si>
-  <si>
-    <t>5164</t>
-  </si>
-  <si>
-    <t>572.0</t>
-  </si>
-  <si>
-    <t>8520</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>6794</t>
-  </si>
-  <si>
-    <t>5396</t>
-  </si>
-  <si>
-    <t>1398.0</t>
-  </si>
-  <si>
-    <t>9498</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>17634</t>
-  </si>
-  <si>
-    <t>13409</t>
-  </si>
-  <si>
-    <t>4225.0</t>
-  </si>
-  <si>
-    <t>23116</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>971</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>10834</t>
-  </si>
-  <si>
-    <t>9856</t>
-  </si>
-  <si>
-    <t>978.0</t>
-  </si>
-  <si>
-    <t>16608</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>6418</t>
-  </si>
-  <si>
-    <t>5879</t>
-  </si>
-  <si>
-    <t>539.0</t>
-  </si>
-  <si>
-    <t>9651</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>4879</t>
-  </si>
-  <si>
-    <t>4138</t>
-  </si>
-  <si>
-    <t>7134</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>12178</t>
-  </si>
-  <si>
-    <t>11290</t>
-  </si>
-  <si>
-    <t>888.0</t>
-  </si>
-  <si>
-    <t>17728</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>12931</t>
-  </si>
-  <si>
-    <t>11737</t>
-  </si>
-  <si>
-    <t>1194.0</t>
-  </si>
-  <si>
-    <t>18283</t>
+    <t>13459.0</t>
+  </si>
+  <si>
+    <t>11737.0</t>
+  </si>
+  <si>
+    <t>1722.0</t>
+  </si>
+  <si>
+    <t>18861.0</t>
   </si>
   <si>
     <t>84</t>
@@ -996,34 +945,31 @@
     <t>Auvergne-Rhône-Alpes</t>
   </si>
   <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1055</t>
+    <t>1248.0</t>
+  </si>
+  <si>
+    <t>1055.0</t>
   </si>
   <si>
     <t>193.0</t>
   </si>
   <si>
-    <t>1286</t>
+    <t>1286.0</t>
   </si>
   <si>
     <t>185.0</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>12229</t>
-  </si>
-  <si>
-    <t>11196</t>
-  </si>
-  <si>
-    <t>1033.0</t>
-  </si>
-  <si>
-    <t>18253</t>
+    <t>12595.0</t>
+  </si>
+  <si>
+    <t>11196.0</t>
+  </si>
+  <si>
+    <t>1399.0</t>
+  </si>
+  <si>
+    <t>17808.0</t>
   </si>
   <si>
     <t>93</t>
@@ -1032,34 +978,31 @@
     <t>Provence-Alpes-Côte d'Azur</t>
   </si>
   <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>578</t>
+    <t>685.0</t>
+  </si>
+  <si>
+    <t>578.0</t>
   </si>
   <si>
     <t>107.0</t>
   </si>
   <si>
-    <t>713</t>
+    <t>713.0</t>
   </si>
   <si>
     <t>214.0</t>
   </si>
   <si>
-    <t>8722</t>
-  </si>
-  <si>
-    <t>9525</t>
-  </si>
-  <si>
-    <t>-803.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>13654</t>
+    <t>9107.0</t>
+  </si>
+  <si>
+    <t>9525.0</t>
+  </si>
+  <si>
+    <t>-418.0</t>
+  </si>
+  <si>
+    <t>12984.0</t>
   </si>
   <si>
     <t>94</t>
@@ -1068,34 +1011,16 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>7.0</t>
-  </si>
-  <si>
     <t>75.0</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>453</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>580</t>
+    <t>472.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>622.0</t>
   </si>
 </sst>
 </file>
@@ -1847,13 +1772,13 @@
         <v>95</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1927,34 +1852,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -1974,31 +1899,31 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="L3" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>148</v>
@@ -2021,40 +1946,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2128,31 +2053,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K2" t="s">
         <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -2175,34 +2100,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2222,40 +2147,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2329,31 +2254,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
         <v>149</v>
@@ -2376,34 +2301,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2423,40 +2348,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2530,34 +2455,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -2577,19 +2502,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2598,13 +2523,13 @@
         <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="L3" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2624,40 +2549,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="L4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2731,31 +2656,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -2778,34 +2703,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="L3" t="s">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2825,40 +2750,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2932,34 +2857,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="L2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="M2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -2979,34 +2904,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K3" t="s">
         <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -3026,40 +2951,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="L4" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3133,34 +3058,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
         <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -3180,34 +3105,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="L3" t="s">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -3227,40 +3152,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3334,31 +3259,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="M2" t="s">
         <v>149</v>
@@ -3381,19 +3306,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3402,10 +3327,10 @@
         <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="L3" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>149</v>
@@ -3428,40 +3353,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="K4" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3535,19 +3460,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -3556,13 +3481,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -3582,19 +3507,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3603,13 +3528,13 @@
         <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>349</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -3629,40 +3554,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>353</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3736,10 +3661,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3748,16 +3673,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -3783,10 +3708,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -3801,16 +3726,16 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -3830,10 +3755,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -3848,16 +3773,16 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
@@ -3877,34 +3802,34 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N5" t="s">
         <v>55</v>
@@ -3924,28 +3849,28 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
         <v>116</v>
@@ -3971,10 +3896,10 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -4018,10 +3943,10 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>77</v>
@@ -4065,10 +3990,10 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
         <v>119</v>
@@ -4092,13 +4017,13 @@
         <v>123</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4184,16 +4109,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -4225,7 +4150,7 @@
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -4246,7 +4171,7 @@
         <v>127</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -4272,13 +4197,13 @@
         <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -4319,19 +4244,19 @@
         <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
         <v>131</v>
@@ -4375,10 +4300,10 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>133</v>
@@ -4422,16 +4347,16 @@
         <v>62</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N7" t="s">
         <v>45</v>
@@ -4525,13 +4450,13 @@
         <v>142</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4542,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -4711,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -4752,7 +4677,7 @@
         <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
@@ -4767,7 +4692,7 @@
         <v>151</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
         <v>49</v>
@@ -4814,7 +4739,7 @@
         <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>155</v>
@@ -4905,7 +4830,7 @@
         <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
         <v>49</v>
@@ -4955,19 +4880,19 @@
         <v>162</v>
       </c>
       <c r="K9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" t="s">
         <v>163</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>164</v>
       </c>
-      <c r="M9" t="s">
-        <v>165</v>
-      </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5041,10 +4966,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
         <v>166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -5053,7 +4978,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -5088,31 +5013,31 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
         <v>166</v>
       </c>
-      <c r="E3" t="s">
-        <v>167</v>
-      </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -5132,34 +5057,34 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
         <v>166</v>
       </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
         <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N4" t="s">
         <v>45</v>
@@ -5179,10 +5104,10 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" t="s">
         <v>166</v>
-      </c>
-      <c r="E5" t="s">
-        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -5191,7 +5116,7 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
@@ -5203,7 +5128,7 @@
         <v>134</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N5" t="s">
         <v>55</v>
@@ -5223,19 +5148,19 @@
         <v>59</v>
       </c>
       <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
         <v>166</v>
       </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I6" t="s">
         <v>62</v>
@@ -5247,10 +5172,10 @@
         <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
         <v>45</v>
@@ -5270,10 +5195,10 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
         <v>166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>167</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -5282,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
         <v>62</v>
@@ -5314,10 +5239,10 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
         <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>167</v>
       </c>
       <c r="F8" t="s">
         <v>157</v>
@@ -5326,7 +5251,7 @@
         <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I8" t="s">
         <v>80</v>
@@ -5335,13 +5260,13 @@
         <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L8" t="s">
         <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N8" t="s">
         <v>84</v>
@@ -5361,40 +5286,40 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
         <v>166</v>
       </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
       <c r="F9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
         <v>92</v>
       </c>
       <c r="J9" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" t="s">
         <v>182</v>
       </c>
-      <c r="K9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" t="s">
-        <v>184</v>
-      </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5468,34 +5393,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
         <v>185</v>
-      </c>
-      <c r="E2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" t="s">
-        <v>187</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
         <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -5515,34 +5440,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -5562,40 +5487,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5669,31 +5594,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -5716,34 +5641,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L3" t="s">
-        <v>210</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -5763,40 +5688,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="L4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5870,34 +5795,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -5917,19 +5842,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -5938,10 +5863,10 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="M3" t="s">
         <v>39</v>
@@ -5964,40 +5889,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="L4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M4" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6071,31 +5996,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -6118,19 +6043,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -6139,10 +6064,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="L3" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -6165,40 +6090,40 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M4" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="354">
   <si>
     <t>mesure</t>
   </si>
@@ -588,40 +588,46 @@
     <t>Île-de-France</t>
   </si>
   <si>
-    <t>1453.0</t>
-  </si>
-  <si>
-    <t>1267.0</t>
+    <t>1453</t>
+  </si>
+  <si>
+    <t>1267</t>
   </si>
   <si>
     <t>186.0</t>
   </si>
   <si>
-    <t>1504.0</t>
+    <t>1504</t>
   </si>
   <si>
     <t>78.0</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>37.0</t>
   </si>
   <si>
     <t>336.0</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>84.0</t>
   </si>
   <si>
-    <t>21724.0</t>
-  </si>
-  <si>
-    <t>17227.0</t>
+    <t>21724</t>
+  </si>
+  <si>
+    <t>17227</t>
   </si>
   <si>
     <t>4497.0</t>
   </si>
   <si>
-    <t>28263.0</t>
+    <t>28263</t>
   </si>
   <si>
     <t>24</t>
@@ -630,34 +636,43 @@
     <t>Centre-Val de Loire</t>
   </si>
   <si>
-    <t>423.0</t>
-  </si>
-  <si>
-    <t>350.0</t>
+    <t>423</t>
+  </si>
+  <si>
+    <t>350</t>
   </si>
   <si>
     <t>21.0</t>
   </si>
   <si>
-    <t>432.0</t>
+    <t>432</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>167.0</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>77.0</t>
   </si>
   <si>
-    <t>5307.0</t>
-  </si>
-  <si>
-    <t>4263.0</t>
+    <t>5307</t>
+  </si>
+  <si>
+    <t>4263</t>
   </si>
   <si>
     <t>1044.0</t>
   </si>
   <si>
-    <t>7449.0</t>
+    <t>7449</t>
   </si>
   <si>
     <t>33.0</t>
@@ -669,28 +684,34 @@
     <t>Bourgogne-Franche-Comté</t>
   </si>
   <si>
-    <t>446.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>461.0</t>
+    <t>446</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>175.0</t>
   </si>
   <si>
-    <t>5959.0</t>
-  </si>
-  <si>
-    <t>5164.0</t>
+    <t>5959</t>
+  </si>
+  <si>
+    <t>5164</t>
   </si>
   <si>
     <t>795.0</t>
   </si>
   <si>
-    <t>8386.0</t>
+    <t>8386</t>
   </si>
   <si>
     <t>25.0</t>
@@ -702,325 +723,376 @@
     <t>Normandie</t>
   </si>
   <si>
-    <t>488.0</t>
-  </si>
-  <si>
-    <t>395.0</t>
-  </si>
-  <si>
-    <t>487.0</t>
+    <t>488</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>7072</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>1676.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>9724</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>320.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18403</t>
+  </si>
+  <si>
+    <t>13409</t>
+  </si>
+  <si>
+    <t>4994.0</t>
+  </si>
+  <si>
+    <t>24857</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>971</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>182.0</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>11163</t>
+  </si>
+  <si>
+    <t>9856</t>
+  </si>
+  <si>
+    <t>1307.0</t>
+  </si>
+  <si>
+    <t>15885</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>6682</t>
+  </si>
+  <si>
+    <t>5879</t>
+  </si>
+  <si>
+    <t>803.0</t>
+  </si>
+  <si>
+    <t>9685</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>5027</t>
+  </si>
+  <si>
+    <t>4138</t>
+  </si>
+  <si>
+    <t>889.0</t>
+  </si>
+  <si>
+    <t>7114</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>752</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>12778</t>
+  </si>
+  <si>
+    <t>11290</t>
+  </si>
+  <si>
+    <t>1488.0</t>
+  </si>
+  <si>
+    <t>18240</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>13459</t>
+  </si>
+  <si>
+    <t>11737</t>
+  </si>
+  <si>
+    <t>1722.0</t>
+  </si>
+  <si>
+    <t>18861</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>1248</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>193.0</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>12595</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>1399.0</t>
+  </si>
+  <si>
+    <t>17808</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>107.0</t>
+  </si>
+  <si>
+    <t>713</t>
+  </si>
+  <si>
+    <t>214.0</t>
+  </si>
+  <si>
+    <t>9107</t>
+  </si>
+  <si>
+    <t>9525</t>
+  </si>
+  <si>
+    <t>-418.0</t>
+  </si>
+  <si>
+    <t>12984</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>7072.0</t>
-  </si>
-  <si>
-    <t>5396.0</t>
-  </si>
-  <si>
-    <t>1676.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>9724.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1030.0</t>
-  </si>
-  <si>
-    <t>938.0</t>
-  </si>
-  <si>
-    <t>1109.0</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>18403.0</t>
-  </si>
-  <si>
-    <t>13409.0</t>
-  </si>
-  <si>
-    <t>4994.0</t>
-  </si>
-  <si>
-    <t>24857.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>815.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>971.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>11163.0</t>
-  </si>
-  <si>
-    <t>9856.0</t>
-  </si>
-  <si>
-    <t>1307.0</t>
-  </si>
-  <si>
-    <t>15885.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>460.0</t>
-  </si>
-  <si>
-    <t>427.0</t>
-  </si>
-  <si>
-    <t>469.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>6682.0</t>
-  </si>
-  <si>
-    <t>5879.0</t>
-  </si>
-  <si>
-    <t>803.0</t>
-  </si>
-  <si>
-    <t>9685.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>373.0</t>
-  </si>
-  <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>5027.0</t>
-  </si>
-  <si>
-    <t>4138.0</t>
-  </si>
-  <si>
-    <t>889.0</t>
-  </si>
-  <si>
-    <t>7114.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>845.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>12778.0</t>
-  </si>
-  <si>
-    <t>11290.0</t>
-  </si>
-  <si>
-    <t>1488.0</t>
-  </si>
-  <si>
-    <t>18240.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>886.0</t>
-  </si>
-  <si>
-    <t>700.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>906.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>13459.0</t>
-  </si>
-  <si>
-    <t>11737.0</t>
-  </si>
-  <si>
-    <t>1722.0</t>
-  </si>
-  <si>
-    <t>18861.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>1248.0</t>
-  </si>
-  <si>
-    <t>1055.0</t>
-  </si>
-  <si>
-    <t>193.0</t>
-  </si>
-  <si>
-    <t>1286.0</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>12595.0</t>
-  </si>
-  <si>
-    <t>11196.0</t>
-  </si>
-  <si>
-    <t>1399.0</t>
-  </si>
-  <si>
-    <t>17808.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>685.0</t>
-  </si>
-  <si>
-    <t>578.0</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>713.0</t>
-  </si>
-  <si>
-    <t>214.0</t>
-  </si>
-  <si>
-    <t>9107.0</t>
-  </si>
-  <si>
-    <t>9525.0</t>
-  </si>
-  <si>
-    <t>-418.0</t>
-  </si>
-  <si>
-    <t>12984.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
     <t>75.0</t>
   </si>
   <si>
-    <t>472.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>622.0</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>622</t>
   </si>
 </sst>
 </file>
@@ -1852,19 +1924,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -1876,7 +1948,7 @@
         <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="M2" t="s">
         <v>112</v>
@@ -1899,19 +1971,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -1920,10 +1992,10 @@
         <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="M3" t="s">
         <v>148</v>
@@ -1946,34 +2018,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L4" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="M4" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -2053,31 +2125,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
         <v>81</v>
       </c>
       <c r="L2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -2100,34 +2172,34 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="K3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2147,31 +2219,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
         <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
         <v>81</v>
@@ -2254,31 +2326,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K2" t="s">
         <v>101</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M2" t="s">
         <v>149</v>
@@ -2301,19 +2373,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2322,10 +2394,10 @@
         <v>102</v>
       </c>
       <c r="K3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
         <v>174</v>
@@ -2348,34 +2420,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -2455,34 +2527,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M2" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -2502,19 +2574,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2523,10 +2595,10 @@
         <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="M3" t="s">
         <v>115</v>
@@ -2549,34 +2621,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F4" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="K4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L4" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="M4" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -2656,19 +2728,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -2680,7 +2752,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -2703,19 +2775,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2724,13 +2796,13 @@
         <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>301</v>
       </c>
       <c r="M3" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2750,34 +2822,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="K4" t="s">
         <v>137</v>
       </c>
       <c r="L4" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -2857,19 +2929,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -2878,13 +2950,13 @@
         <v>187</v>
       </c>
       <c r="K2" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="L2" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="M2" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -2904,19 +2976,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -2928,10 +3000,10 @@
         <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="M3" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -2951,31 +3023,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="K4" t="s">
         <v>151</v>
       </c>
       <c r="L4" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="M4" t="s">
         <v>177</v>
@@ -3058,34 +3130,34 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="K2" t="s">
         <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="M2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -3105,19 +3177,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3126,10 +3198,10 @@
         <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="M3" t="s">
         <v>114</v>
@@ -3152,34 +3224,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="M4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -3259,31 +3331,31 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="K2" t="s">
         <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="M2" t="s">
         <v>149</v>
@@ -3306,19 +3378,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3327,10 +3399,10 @@
         <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="M3" t="s">
         <v>149</v>
@@ -3353,31 +3425,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="K4" t="s">
         <v>121</v>
       </c>
       <c r="L4" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="M4" t="s">
         <v>107</v>
@@ -3460,19 +3532,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -3481,13 +3553,13 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="L2" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="M2" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="N2" t="s">
         <v>45</v>
@@ -3507,19 +3579,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -3531,7 +3603,7 @@
         <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>350</v>
       </c>
       <c r="M3" t="s">
         <v>111</v>
@@ -3554,19 +3626,19 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
@@ -3578,7 +3650,7 @@
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="M4" t="s">
         <v>101</v>
@@ -5446,28 +5518,28 @@
         <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -5493,25 +5565,25 @@
         <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M4" t="s">
         <v>159</v>
@@ -5594,19 +5666,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5615,10 +5687,10 @@
         <v>113</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -5641,19 +5713,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -5662,13 +5734,13 @@
         <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="M3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
         <v>45</v>
@@ -5688,34 +5760,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K4" t="s">
         <v>177</v>
       </c>
       <c r="L4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -5795,19 +5867,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -5819,7 +5891,7 @@
         <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
         <v>189</v>
@@ -5842,19 +5914,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -5863,10 +5935,10 @@
         <v>44</v>
       </c>
       <c r="K3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L3" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="M3" t="s">
         <v>39</v>
@@ -5889,34 +5961,34 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
         <v>151</v>
       </c>
       <c r="L4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N4" t="s">
         <v>55</v>
@@ -5996,19 +6068,19 @@
         <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I2" t="s">
         <v>62</v>
@@ -6020,7 +6092,7 @@
         <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
@@ -6043,19 +6115,19 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -6064,10 +6136,10 @@
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -6090,31 +6162,31 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G4" t="s">
         <v>90</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="I4" t="s">
         <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="K4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M4" t="s">
         <v>131</v>

--- a/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
+++ b/secteur-action-publique/education/regions/barometre-resultats-education-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="323">
   <si>
     <t>mesure</t>
   </si>
@@ -96,21 +96,24 @@
     <t>100.0</t>
   </si>
   <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
     <t>2021-10-31</t>
   </si>
   <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>2019-10-31</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
     <t>% des classes</t>
   </si>
   <si>
@@ -120,979 +123,883 @@
     <t>tx-gs-rep</t>
   </si>
   <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
     <t>85.0</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2019-11-30</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>2733.0</t>
+    <t>2833.0</t>
+  </si>
+  <si>
+    <t>99.0</t>
+  </si>
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>Limiter les classes à 24 en grande section, CP, CE1</t>
+  </si>
+  <si>
+    <t>Part des classes de GS, CP ou CE1 ayant un effectif inférieur ou égal à 24 élèves</t>
+  </si>
+  <si>
+    <t>tx-classes-cp-ce1</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>Devoirs faits au collège</t>
+  </si>
+  <si>
+    <t>Part de collégiens bénéficiant du dispositif (en %)</t>
+  </si>
+  <si>
+    <t>taux-collegiens-beneficiaires</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>18.0</t>
   </si>
   <si>
     <t>95.0</t>
   </si>
   <si>
-    <t>2022-11-30</t>
-  </si>
-  <si>
-    <t>Limiter les classes à 24 en grande section, CP, CE1</t>
-  </si>
-  <si>
-    <t>Part des classes de GS, CP ou CE1 ayant un effectif inférieur ou égal à 24 élèves</t>
-  </si>
-  <si>
-    <t>tx-classes-cp-ce1</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>2019-09-30</t>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>% de collégiens</t>
+  </si>
+  <si>
+    <t>Offrir une scolarisation inclusive à tous les enfants handicapés</t>
+  </si>
+  <si>
+    <t>Nombre d’unités locales d’inclusion scolaires (ULIS) pour les élèves en situation de handicap à l’école maternelle, à l’école élémentaire, au collège et au lycée</t>
+  </si>
+  <si>
+    <t>nombre-creation-ulis</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>unités</t>
+  </si>
+  <si>
+    <t>Nombre de classes adaptées à la scolarisation des enfants autistes (UEMA/UEEA) à l’école maternelle et à l’école élémentaire</t>
+  </si>
+  <si>
+    <t>nombre-creation-ueea</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déployer Parcoursup </t>
+  </si>
+  <si>
+    <t>Taux de réussite aux examens de licence 1</t>
+  </si>
+  <si>
+    <t>tx-reussite-examens</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>% de réussite</t>
+  </si>
+  <si>
+    <t>Promouvoir l'engagement chez les jeunes</t>
+  </si>
+  <si>
+    <t>Nombre de volontaires ayant réalisé au moins un jour de mission de service civique dans l'année</t>
+  </si>
+  <si>
+    <t>nb-jeunes-engages</t>
+  </si>
+  <si>
+    <t>2576.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2002.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>574.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>3348.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>jeunes</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>614.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>Devoirs faits au collège</t>
-  </si>
-  <si>
-    <t>Part de collégiens bénéficiant du dispositif (en %)</t>
-  </si>
-  <si>
-    <t>taux-collegiens-beneficiaires</t>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>1408.0</t>
+  </si>
+  <si>
+    <t>1412.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>1753.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>24.1</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>1438.0</t>
+  </si>
+  <si>
+    <t>1891.0</t>
+  </si>
+  <si>
+    <t>-453.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>2357.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>1575.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
   </si>
   <si>
     <t>45.0</t>
   </si>
   <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>2018-03-31</t>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>22.2</t>
+  </si>
+  <si>
+    <t>4235.0</t>
+  </si>
+  <si>
+    <t>3374.0</t>
+  </si>
+  <si>
+    <t>861.0</t>
   </si>
   <si>
     <t>26.0</t>
   </si>
   <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>% de collégiens</t>
-  </si>
-  <si>
-    <t>Offrir une scolarisation inclusive à tous les enfants handicapés</t>
-  </si>
-  <si>
-    <t>Nombre d’unités locales d’inclusion scolaires (ULIS) pour les élèves en situation de handicap à l’école maternelle, à l’école élémentaire, au collège et au lycée</t>
-  </si>
-  <si>
-    <t>nombre-creation-ulis</t>
-  </si>
-  <si>
-    <t>131.0</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>unités</t>
-  </si>
-  <si>
-    <t>Nombre de classes adaptées à la scolarisation des enfants autistes (UEMA/UEEA) à l’école maternelle et à l’école élémentaire</t>
-  </si>
-  <si>
-    <t>nombre-creation-ueea</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Déployer Parcoursup </t>
-  </si>
-  <si>
-    <t>Taux de réussite aux examens de licence 1</t>
-  </si>
-  <si>
-    <t>tx-reussite-examens</t>
-  </si>
-  <si>
-    <t>43.2</t>
-  </si>
-  <si>
-    <t>2020-10-31</t>
-  </si>
-  <si>
-    <t>21.4</t>
-  </si>
-  <si>
-    <t>2017-10-31</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>102.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>2022-10-31</t>
-  </si>
-  <si>
-    <t>% de réussite</t>
-  </si>
-  <si>
-    <t>Promouvoir l'engagement chez les jeunes</t>
-  </si>
-  <si>
-    <t>Nombre de volontaires ayant réalisé au moins un jour de mission de service civique dans l'année</t>
-  </si>
-  <si>
-    <t>nb-jeunes-engages</t>
-  </si>
-  <si>
-    <t>2576.0</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2002.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>574.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>3348.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>jeunes</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>579.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>99.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>5904.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>1847.0</t>
+  </si>
+  <si>
+    <t>1087.0</t>
+  </si>
+  <si>
+    <t>760.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>2214.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1493.0</t>
+  </si>
+  <si>
+    <t>1267.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>1504.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>445.0</t>
+  </si>
+  <si>
+    <t>21724.0</t>
+  </si>
+  <si>
+    <t>17227.0</t>
+  </si>
+  <si>
+    <t>4497.0</t>
+  </si>
+  <si>
+    <t>28263.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>444.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>5307.0</t>
+  </si>
+  <si>
+    <t>4263.0</t>
+  </si>
+  <si>
+    <t>1044.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>7449.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>460.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>461.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>5959.0</t>
+  </si>
+  <si>
+    <t>5164.0</t>
+  </si>
+  <si>
+    <t>795.0</t>
+  </si>
+  <si>
+    <t>8386.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>501.0</t>
+  </si>
+  <si>
+    <t>395.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>487.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>186.0</t>
+  </si>
+  <si>
+    <t>7072.0</t>
+  </si>
+  <si>
+    <t>5396.0</t>
+  </si>
+  <si>
+    <t>1676.0</t>
+  </si>
+  <si>
+    <t>9724.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>1055.0</t>
+  </si>
+  <si>
+    <t>938.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>1109.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>18403.0</t>
+  </si>
+  <si>
+    <t>13409.0</t>
+  </si>
+  <si>
+    <t>4994.0</t>
+  </si>
+  <si>
+    <t>24857.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>1024.0</t>
+  </si>
+  <si>
+    <t>815.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>971.0</t>
+  </si>
+  <si>
+    <t>11163.0</t>
+  </si>
+  <si>
+    <t>9856.0</t>
+  </si>
+  <si>
+    <t>1307.0</t>
+  </si>
+  <si>
+    <t>15885.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>469.0</t>
+  </si>
+  <si>
+    <t>427.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>6682.0</t>
+  </si>
+  <si>
+    <t>5879.0</t>
+  </si>
+  <si>
+    <t>803.0</t>
+  </si>
+  <si>
+    <t>9685.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>5027.0</t>
+  </si>
+  <si>
+    <t>4138.0</t>
+  </si>
+  <si>
+    <t>889.0</t>
+  </si>
+  <si>
+    <t>7114.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>848.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>12778.0</t>
+  </si>
+  <si>
+    <t>11290.0</t>
+  </si>
+  <si>
+    <t>1488.0</t>
+  </si>
+  <si>
+    <t>18240.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>907.0</t>
+  </si>
+  <si>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>207.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>13459.0</t>
+  </si>
+  <si>
+    <t>11737.0</t>
+  </si>
+  <si>
+    <t>1722.0</t>
+  </si>
+  <si>
+    <t>18861.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>1268.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>1286.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>12595.0</t>
+  </si>
+  <si>
+    <t>11196.0</t>
+  </si>
+  <si>
+    <t>1399.0</t>
+  </si>
+  <si>
+    <t>17808.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>721.0</t>
+  </si>
+  <si>
+    <t>578.0</t>
+  </si>
+  <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>713.0</t>
+  </si>
+  <si>
+    <t>314.0</t>
+  </si>
+  <si>
+    <t>9107.0</t>
+  </si>
+  <si>
+    <t>9525.0</t>
+  </si>
+  <si>
+    <t>-418.0</t>
+  </si>
+  <si>
+    <t>12984.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
   </si>
   <si>
     <t>48.0</t>
   </si>
   <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>94.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>1408.0</t>
-  </si>
-  <si>
-    <t>1412.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>1753.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>93.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>27.2</t>
-  </si>
-  <si>
-    <t>24.1</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>1438.0</t>
-  </si>
-  <si>
-    <t>1891.0</t>
-  </si>
-  <si>
-    <t>-453.0</t>
-  </si>
-  <si>
-    <t>-24.0</t>
-  </si>
-  <si>
-    <t>2357.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>1425.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>235.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>255.0</t>
-  </si>
-  <si>
-    <t>150.0</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>22.2</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>4235.0</t>
-  </si>
-  <si>
-    <t>3374.0</t>
-  </si>
-  <si>
-    <t>861.0</t>
-  </si>
-  <si>
-    <t>5904.0</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>98.0</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>1847.0</t>
-  </si>
-  <si>
-    <t>1087.0</t>
-  </si>
-  <si>
-    <t>760.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>2214.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1453</t>
-  </si>
-  <si>
-    <t>1267</t>
-  </si>
-  <si>
-    <t>186.0</t>
-  </si>
-  <si>
-    <t>1504</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>336.0</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>21724</t>
-  </si>
-  <si>
-    <t>17227</t>
-  </si>
-  <si>
-    <t>4497.0</t>
-  </si>
-  <si>
-    <t>28263</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>5307</t>
-  </si>
-  <si>
-    <t>4263</t>
-  </si>
-  <si>
-    <t>1044.0</t>
-  </si>
-  <si>
-    <t>7449</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>175.0</t>
-  </si>
-  <si>
-    <t>5959</t>
-  </si>
-  <si>
-    <t>5164</t>
-  </si>
-  <si>
-    <t>795.0</t>
-  </si>
-  <si>
-    <t>8386</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>395</t>
-  </si>
-  <si>
-    <t>487</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>7072</t>
-  </si>
-  <si>
-    <t>5396</t>
-  </si>
-  <si>
-    <t>1676.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>9724</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>1030</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>18403</t>
-  </si>
-  <si>
-    <t>13409</t>
-  </si>
-  <si>
-    <t>4994.0</t>
-  </si>
-  <si>
-    <t>24857</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>971</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>182.0</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>11163</t>
-  </si>
-  <si>
-    <t>9856</t>
-  </si>
-  <si>
-    <t>1307.0</t>
-  </si>
-  <si>
-    <t>15885</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>6682</t>
-  </si>
-  <si>
-    <t>5879</t>
-  </si>
-  <si>
-    <t>803.0</t>
-  </si>
-  <si>
-    <t>9685</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>80.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>5027</t>
-  </si>
-  <si>
-    <t>4138</t>
-  </si>
-  <si>
-    <t>889.0</t>
-  </si>
-  <si>
-    <t>7114</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>845</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>12778</t>
-  </si>
-  <si>
-    <t>11290</t>
-  </si>
-  <si>
-    <t>1488.0</t>
-  </si>
-  <si>
-    <t>18240</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>13459</t>
-  </si>
-  <si>
-    <t>11737</t>
-  </si>
-  <si>
-    <t>1722.0</t>
-  </si>
-  <si>
-    <t>18861</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>193.0</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>185.0</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>12595</t>
-  </si>
-  <si>
-    <t>11196</t>
-  </si>
-  <si>
-    <t>1399.0</t>
-  </si>
-  <si>
-    <t>17808</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>107.0</t>
-  </si>
-  <si>
-    <t>713</t>
-  </si>
-  <si>
-    <t>214.0</t>
-  </si>
-  <si>
-    <t>9107</t>
-  </si>
-  <si>
-    <t>9525</t>
-  </si>
-  <si>
-    <t>-418.0</t>
-  </si>
-  <si>
-    <t>12984</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>622</t>
+    <t>472.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>622.0</t>
   </si>
 </sst>
 </file>
@@ -1518,10 +1425,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1529,10 +1436,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1541,45 +1448,45 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1588,10 +1495,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>41</v>
@@ -1603,19 +1510,19 @@
         <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1638,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>50</v>
@@ -1653,27 +1560,27 @@
         <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
       <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1682,45 +1589,45 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>60</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>64</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
         <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1729,45 +1636,45 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
         <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1776,45 +1683,45 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
         <v>77</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>80</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>82</v>
-      </c>
-      <c r="L8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1823,34 +1730,34 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>91</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>92</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>93</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
         <v>94</v>
-      </c>
-      <c r="L9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1915,143 +1822,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>237</v>
       </c>
       <c r="K3" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="L3" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
         <v>241</v>
       </c>
-      <c r="E4" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" t="s">
-        <v>250</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" t="s">
-        <v>253</v>
-      </c>
       <c r="M4" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2116,143 +2023,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2317,143 +2224,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="L2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2518,143 +2425,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>188</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="M2" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="L3" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="M3" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>280</v>
-      </c>
-      <c r="E4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="L4" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="M4" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2719,143 +2626,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="K3" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="L3" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="M3" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2920,143 +2827,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="K2" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="L2" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="M2" t="s">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="L3" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="M3" t="s">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3121,143 +3028,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>233</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="M2" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="L3" t="s">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="M4" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3322,143 +3229,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="L2" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="L3" t="s">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3523,143 +3430,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>346</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="M2" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>349</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L3" t="s">
-        <v>350</v>
-      </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3733,10 +3640,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -3745,16 +3652,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -3763,10 +3670,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3774,93 +3681,93 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -3874,228 +3781,228 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>77</v>
       </c>
-      <c r="G8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>82</v>
-      </c>
-      <c r="L8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>119</v>
       </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
         <v>120</v>
       </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>121</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>122</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>123</v>
       </c>
-      <c r="M9" t="s">
-        <v>107</v>
-      </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4181,16 +4088,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -4199,10 +4106,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4210,10 +4117,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>124</v>
@@ -4222,19 +4129,19 @@
         <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s">
         <v>126</v>
@@ -4246,21 +4153,21 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>124</v>
@@ -4269,34 +4176,34 @@
         <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>130</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4316,42 +4223,42 @@
         <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M5" t="s">
         <v>20</v>
       </c>
       <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>124</v>
@@ -4360,45 +4267,45 @@
         <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
         <v>132</v>
       </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>133</v>
       </c>
-      <c r="M6" t="s">
-        <v>134</v>
-      </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>124</v>
@@ -4407,45 +4314,45 @@
         <v>125</v>
       </c>
       <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>124</v>
@@ -4457,42 +4364,42 @@
         <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>136</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
         <v>137</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>124</v>
@@ -4504,13 +4411,13 @@
         <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
         <v>139</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
         <v>140</v>
@@ -4522,13 +4429,13 @@
         <v>142</v>
       </c>
       <c r="M9" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4614,16 +4521,16 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -4632,10 +4539,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4643,10 +4550,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>143</v>
@@ -4655,45 +4562,45 @@
         <v>144</v>
       </c>
       <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>145</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>146</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>147</v>
       </c>
-      <c r="L3" t="s">
-        <v>148</v>
-      </c>
       <c r="M3" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>143</v>
@@ -4702,34 +4609,34 @@
         <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -4749,45 +4656,45 @@
         <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>143</v>
@@ -4796,45 +4703,45 @@
         <v>144</v>
       </c>
       <c r="F6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
         <v>152</v>
       </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
         <v>153</v>
       </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
         <v>154</v>
       </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>155</v>
       </c>
-      <c r="M6" t="s">
-        <v>83</v>
-      </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>143</v>
@@ -4843,45 +4750,45 @@
         <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
         <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>143</v>
@@ -4893,42 +4800,42 @@
         <v>157</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>143</v>
@@ -4937,22 +4844,22 @@
         <v>144</v>
       </c>
       <c r="F9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
         <v>160</v>
       </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
         <v>161</v>
       </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>162</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
       </c>
       <c r="L9" t="s">
         <v>163</v>
@@ -4961,10 +4868,10 @@
         <v>164</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5056,10 +4963,10 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -5068,10 +4975,10 @@
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5079,10 +4986,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>165</v>
@@ -5091,42 +4998,42 @@
         <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>165</v>
@@ -5138,7 +5045,7 @@
         <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>169</v>
@@ -5147,7 +5054,7 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
         <v>170</v>
@@ -5156,13 +5063,13 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -5182,42 +5089,42 @@
         <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>165</v>
@@ -5226,45 +5133,45 @@
         <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M6" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>165</v>
@@ -5273,42 +5180,42 @@
         <v>166</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>165</v>
@@ -5317,45 +5224,45 @@
         <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
         <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>165</v>
@@ -5364,34 +5271,34 @@
         <v>166</v>
       </c>
       <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
         <v>178</v>
       </c>
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>179</v>
       </c>
-      <c r="I9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>180</v>
       </c>
-      <c r="K9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L9" t="s">
-        <v>182</v>
-      </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5456,143 +5363,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
         <v>183</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>184</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
         <v>185</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
         <v>186</v>
       </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" t="s">
-        <v>188</v>
-      </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="L4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5657,143 +5564,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
         <v>199</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" t="s">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L2" t="s">
-        <v>204</v>
-      </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5858,143 +5765,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>215</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
         <v>216</v>
       </c>
-      <c r="F4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>225</v>
-      </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6059,143 +5966,143 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="L2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="K3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>228</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
         <v>229</v>
       </c>
-      <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" t="s">
-        <v>238</v>
-      </c>
       <c r="K4" t="s">
-        <v>239</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
